--- a/data/trans_dic/IP15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>26,64%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,36</t>
+          <t>15,74; 23,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,11</t>
+          <t>19,58; 29,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,48</t>
+          <t>13,08; 20,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 25,76</t>
+          <t>20,41; 30,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,64</t>
+          <t>11,73; 19,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,06; 20,36</t>
+          <t>15,65; 24,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 17,9</t>
+          <t>15,4; 23,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 27,6</t>
+          <t>22,63; 33,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 21,14</t>
+          <t>15,1; 21,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,7</t>
+          <t>18,88; 25,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,05</t>
+          <t>15,09; 20,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,4</t>
+          <t>22,97; 30,61</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>21,01%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 23,8</t>
+          <t>15,82; 23,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,58; 29,05</t>
+          <t>10,34; 17,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 20,84</t>
+          <t>11,73; 18,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 30,9</t>
+          <t>17,35; 25,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,99</t>
+          <t>13,5; 20,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,37</t>
+          <t>13,06; 20,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,23</t>
+          <t>10,75; 17,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,63; 33,0</t>
+          <t>16,97; 27,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,1; 21,03</t>
+          <t>15,52; 21,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,02</t>
+          <t>12,54; 17,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,09; 20,95</t>
+          <t>11,98; 17,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,61</t>
+          <t>17,94; 24,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,8%</t>
+          <t>27,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>31,83%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 25,28</t>
+          <t>19,15; 31,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,97; 31,55</t>
+          <t>20,93; 33,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 23,3</t>
+          <t>14,29; 25,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 37,05</t>
+          <t>26,87; 45,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,67; 27,86</t>
+          <t>20,7; 34,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,9; 31,68</t>
+          <t>20,29; 31,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,23; 27,52</t>
+          <t>15,51; 26,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,38; 32,13</t>
+          <t>19,45; 36,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 25,05</t>
+          <t>21,22; 30,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 30,05</t>
+          <t>21,52; 30,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 23,92</t>
+          <t>16,37; 24,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 32,73</t>
+          <t>25,01; 38,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,88%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>24,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>27,22%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,74; 23,8</t>
+          <t>16,4; 24,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 29,05</t>
+          <t>20,99; 29,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 20,84</t>
+          <t>13,24; 20,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,41; 30,9</t>
+          <t>21,01; 32,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,73; 19,99</t>
+          <t>13,54; 21,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,65; 24,37</t>
+          <t>18,52; 27,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,23</t>
+          <t>15,95; 24,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,63; 33,0</t>
+          <t>22,48; 34,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,1; 21,03</t>
+          <t>16,18; 21,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,02</t>
+          <t>20,84; 27,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 20,95</t>
+          <t>15,56; 21,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 30,61</t>
+          <t>23,55; 31,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,01%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,36</t>
+          <t>12,15; 22,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 17,11</t>
+          <t>13,09; 23,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,48</t>
+          <t>13,67; 23,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,35; 25,76</t>
+          <t>16,58; 26,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,64</t>
+          <t>12,87; 23,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 20,36</t>
+          <t>14,14; 24,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,75; 17,9</t>
+          <t>14,44; 24,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,97; 27,6</t>
+          <t>15,75; 26,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,52; 21,14</t>
+          <t>13,95; 21,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,7</t>
+          <t>14,95; 22,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,05</t>
+          <t>15,5; 22,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,4</t>
+          <t>18,03; 25,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,09%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>21,6%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,63; 22,56</t>
+          <t>15,05; 24,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 23,46</t>
+          <t>9,84; 17,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,82</t>
+          <t>9,14; 17,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 26,67</t>
+          <t>16,99; 26,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 20,79</t>
+          <t>11,76; 20,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 23,23</t>
+          <t>11,64; 21,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,72; 20,56</t>
+          <t>8,76; 17,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 27,66</t>
+          <t>16,89; 31,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,66; 20,86</t>
+          <t>14,83; 20,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,17; 22,72</t>
+          <t>12,17; 18,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,61; 18,91</t>
+          <t>9,91; 16,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,08</t>
+          <t>18,3; 26,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17,58; 22,37</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 23,95</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 19,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 26,86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 20,7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 23,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,73; 20,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21,12; 28,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 20,98</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,09; 22,76</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 18,92</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 26,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,15; 31,83</t>
+          <t>18,94; 32,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,93; 33,29</t>
+          <t>20,41; 32,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 25,83</t>
+          <t>13,89; 25,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,87; 45,86</t>
+          <t>26,89; 45,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,7; 34,0</t>
+          <t>21,15; 34,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,29; 31,54</t>
+          <t>19,52; 30,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 26,38</t>
+          <t>15,95; 26,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,45; 36,98</t>
+          <t>19,49; 36,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,22; 30,63</t>
+          <t>21,1; 30,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,52; 30,15</t>
+          <t>21,78; 29,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,37; 24,11</t>
+          <t>16,17; 24,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,01; 38,29</t>
+          <t>25,24; 38,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,4; 24,51</t>
+          <t>16,39; 24,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,99; 29,79</t>
+          <t>20,76; 29,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 20,78</t>
+          <t>13,11; 20,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 32,04</t>
+          <t>21,58; 31,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,54; 21,39</t>
+          <t>13,26; 21,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,52; 27,56</t>
+          <t>18,69; 27,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 24,57</t>
+          <t>15,78; 25,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,48; 34,8</t>
+          <t>22,46; 34,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,18; 21,4</t>
+          <t>16,13; 21,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 27,47</t>
+          <t>20,74; 26,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 21,23</t>
+          <t>15,56; 21,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,55; 31,53</t>
+          <t>23,14; 31,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 22,56</t>
+          <t>11,75; 22,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,09; 23,31</t>
+          <t>13,29; 23,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,67; 23,24</t>
+          <t>13,36; 22,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 26,91</t>
+          <t>17,0; 27,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 23,91</t>
+          <t>12,38; 23,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,14; 24,52</t>
+          <t>14,26; 25,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,44; 24,38</t>
+          <t>14,54; 23,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,75; 26,07</t>
+          <t>16,19; 26,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,95; 21,57</t>
+          <t>13,86; 20,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,95; 22,52</t>
+          <t>14,92; 22,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 22,12</t>
+          <t>15,11; 21,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 25,42</t>
+          <t>17,79; 25,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 24,05</t>
+          <t>14,81; 23,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 17,94</t>
+          <t>10,02; 18,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,14; 17,74</t>
+          <t>9,32; 18,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 26,82</t>
+          <t>16,85; 26,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,32</t>
+          <t>11,58; 20,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 21,01</t>
+          <t>11,53; 21,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 17,21</t>
+          <t>9,09; 17,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 31,56</t>
+          <t>16,92; 31,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,83; 20,78</t>
+          <t>14,54; 20,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,03</t>
+          <t>11,83; 18,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 16,03</t>
+          <t>10,03; 16,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 26,54</t>
+          <t>18,15; 26,31</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,58; 22,37</t>
+          <t>17,86; 22,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,73; 23,95</t>
+          <t>18,76; 23,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 19,17</t>
+          <t>14,43; 18,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,93; 26,86</t>
+          <t>21,16; 26,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,15; 20,7</t>
+          <t>15,98; 20,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,08; 23,39</t>
+          <t>18,37; 23,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,73; 20,4</t>
+          <t>16,01; 20,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,12; 28,17</t>
+          <t>20,85; 28,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,49; 20,98</t>
+          <t>17,53; 20,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,76</t>
+          <t>19,27; 22,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,92</t>
+          <t>15,74; 18,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,69; 26,21</t>
+          <t>21,65; 26,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP15-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP15-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27,79%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>24,43%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>26,32%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>19,31%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>35,78%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,35%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>24,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>20,53%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>36,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>32,23%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 32,15</t>
+          <t>20,5; 34,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 32,94</t>
+          <t>19,71; 30,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,89; 25,78</t>
+          <t>15,41; 26,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,89; 45,79</t>
+          <t>19,84; 38,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,15; 34,69</t>
+          <t>18,69; 31,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,52; 30,66</t>
+          <t>20,75; 32,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,95; 26,91</t>
+          <t>14,07; 25,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,49; 36,64</t>
+          <t>27,84; 46,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,1; 30,55</t>
+          <t>21,93; 30,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,78; 29,88</t>
+          <t>21,19; 29,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 24,26</t>
+          <t>16,11; 24,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 38,21</t>
+          <t>25,59; 39,25</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,07%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22,93%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29,27%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>20,08%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>25,04%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>16,7%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,35%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,07%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>22,93%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>20,06%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,22%</t>
+          <t>28,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 24,48</t>
+          <t>13,4; 21,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,72</t>
+          <t>18,13; 27,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,11; 20,54</t>
+          <t>15,96; 24,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,58; 31,91</t>
+          <t>23,15; 36,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 21,14</t>
+          <t>16,31; 24,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 27,56</t>
+          <t>20,86; 29,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 25,37</t>
+          <t>13,13; 20,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,46; 34,32</t>
+          <t>21,5; 32,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,13; 21,16</t>
+          <t>15,97; 21,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,74; 26,93</t>
+          <t>21,08; 27,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 21,26</t>
+          <t>15,52; 21,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,14; 31,44</t>
+          <t>23,59; 32,31</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19,02%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21,91%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>16,86%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>17,69%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>17,74%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>21,52%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>17,65%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>19,12%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,4%</t>
+          <t>21,81%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 22,19</t>
+          <t>12,91; 23,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,52</t>
+          <t>14,34; 24,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 22,85</t>
+          <t>14,56; 24,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 27,43</t>
+          <t>17,0; 28,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,38; 23,01</t>
+          <t>11,78; 21,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 25,19</t>
+          <t>13,11; 23,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,54; 23,63</t>
+          <t>13,12; 22,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,19; 26,65</t>
+          <t>16,25; 26,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 20,94</t>
+          <t>13,77; 21,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,92; 22,19</t>
+          <t>15,09; 22,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,11; 21,61</t>
+          <t>15,67; 22,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,79; 25,59</t>
+          <t>18,23; 25,6</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>19,14%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>13,87%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>13,08%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>21,43%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>15,74%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,73%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>24,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 23,95</t>
+          <t>11,93; 20,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,52</t>
+          <t>11,68; 20,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 18,28</t>
+          <t>8,8; 17,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 26,56</t>
+          <t>18,94; 51,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 20,35</t>
+          <t>14,79; 23,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,53; 21,01</t>
+          <t>10,26; 18,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 17,1</t>
+          <t>9,45; 18,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 31,01</t>
+          <t>16,86; 27,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,54; 20,8</t>
+          <t>14,71; 20,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,83; 18,19</t>
+          <t>11,82; 17,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,03; 16,43</t>
+          <t>10,07; 16,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 26,31</t>
+          <t>19,59; 38,49</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>19,91%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>21,09%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>16,55%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>23,8%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,76%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>25,29%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,86; 22,53</t>
+          <t>16,07; 20,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,76; 23,62</t>
+          <t>18,26; 23,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,75</t>
+          <t>15,72; 20,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,16; 26,95</t>
+          <t>22,39; 37,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,98; 20,72</t>
+          <t>17,63; 22,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 23,32</t>
+          <t>18,59; 23,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 20,45</t>
+          <t>14,34; 18,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,85; 28,06</t>
+          <t>20,87; 26,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,97</t>
+          <t>17,66; 20,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,87</t>
+          <t>19,17; 22,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,74; 18,92</t>
+          <t>15,61; 18,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,65; 26,11</t>
+          <t>22,74; 31,08</t>
         </is>
       </c>
     </row>
